--- a/InstancePolandV1.xlsx
+++ b/InstancePolandV1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathieu/Documents/Work/Teaching/ST7-OSTP/DB Project/My Work/InstancesV1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathieu/Documents/Work/PhD Years/PhD/Code/XWSRP/data/teaching/V1/instances/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73793E1-CD13-2E4A-9E38-97FFC174065B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE40880-4F48-414E-BD25-8CB558DFD6FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" xr2:uid="{745759C5-7123-8144-B92E-2C75C62BB0A9}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16660" activeTab="2" xr2:uid="{745759C5-7123-8144-B92E-2C75C62BB0A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="81">
   <si>
     <t>Latitude</t>
   </si>
@@ -141,9 +141,6 @@
     <t>T18</t>
   </si>
   <si>
-    <t>T19</t>
-  </si>
-  <si>
     <t>53.1790933</t>
   </si>
   <si>
@@ -268,13 +265,28 @@
   </si>
   <si>
     <t>Karol</t>
+  </si>
+  <si>
+    <t>8:30am</t>
+  </si>
+  <si>
+    <t>6:30pm</t>
+  </si>
+  <si>
+    <t>12:00pm</t>
+  </si>
+  <si>
+    <t>1:00pm</t>
+  </si>
+  <si>
+    <t>4:00pm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -291,6 +303,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -319,8 +339,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -637,90 +657,90 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F9C2C5F-E1A7-F54F-815D-9D441051269D}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="G1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>14</v>
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -729,29 +749,46 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDCD59BD-C52C-CC4B-9F5B-54825F59A83D}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E1" t="s">
-        <v>72</v>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -763,8 +800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEA72F52-AB34-1E4A-8B1D-E76BD6529E91}">
   <dimension ref="A1:H120"/>
   <sheetViews>
-    <sheetView zoomScale="137" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1"/>
+    <sheetView tabSelected="1" zoomScale="137" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -777,29 +814,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="H1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -807,25 +844,25 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
         <v>35</v>
-      </c>
-      <c r="C2" t="s">
-        <v>36</v>
       </c>
       <c r="D2" s="1">
         <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -833,25 +870,25 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
         <v>37</v>
-      </c>
-      <c r="C3" t="s">
-        <v>38</v>
       </c>
       <c r="D3" s="1">
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -859,25 +896,25 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
         <v>39</v>
-      </c>
-      <c r="C4" t="s">
-        <v>40</v>
       </c>
       <c r="D4" s="1">
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -894,16 +931,16 @@
         <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -911,25 +948,25 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
         <v>41</v>
-      </c>
-      <c r="C6" t="s">
-        <v>42</v>
       </c>
       <c r="D6" s="1">
         <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -937,25 +974,25 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
         <v>43</v>
       </c>
-      <c r="C7" t="s">
-        <v>44</v>
-      </c>
       <c r="D7" s="1">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -972,16 +1009,16 @@
         <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -998,16 +1035,16 @@
         <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F9">
         <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1015,30 +1052,30 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
         <v>45</v>
-      </c>
-      <c r="C10" t="s">
-        <v>46</v>
       </c>
       <c r="D10" s="1">
         <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F10">
         <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
@@ -1050,16 +1087,16 @@
         <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H11" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1067,25 +1104,25 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
         <v>48</v>
-      </c>
-      <c r="C12" t="s">
-        <v>49</v>
       </c>
       <c r="D12" s="1">
         <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1093,25 +1130,25 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
         <v>50</v>
       </c>
-      <c r="C13" t="s">
-        <v>51</v>
-      </c>
       <c r="D13" s="1">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="H13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1119,103 +1156,103 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" t="s">
         <v>53</v>
-      </c>
-      <c r="C14" t="s">
-        <v>54</v>
       </c>
       <c r="D14" s="1">
         <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
         <v>56</v>
-      </c>
-      <c r="C15" t="s">
-        <v>57</v>
       </c>
       <c r="D15" s="1">
         <v>40</v>
       </c>
       <c r="E15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="D16" s="1">
         <v>40</v>
       </c>
       <c r="E16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D17" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1223,25 +1260,25 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D18" s="1">
         <v>30</v>
       </c>
       <c r="E18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1249,66 +1286,34 @@
         <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="D19" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H19" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="1">
-        <v>50</v>
-      </c>
-      <c r="E20" t="s">
-        <v>67</v>
-      </c>
-      <c r="F20">
-        <v>2</v>
-      </c>
-      <c r="G20" t="s">
-        <v>68</v>
-      </c>
-      <c r="H20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1612,21 +1617,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D7014FA-BDD6-0542-BBE4-F9718ABA192E}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="C1" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
